--- a/asgn1-Sinoh/analysis_of_sort_runtime.xlsx
+++ b/asgn1-Sinoh/analysis_of_sort_runtime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Code\CSC-349\asgn1-Sinoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\GitHub\CSC-349\asgn1-Sinoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067FED07-4175-48F9-B65E-C716DC3381B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A04E2CF-644D-408B-9DF8-512775ADC61D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{F8067F0C-8750-41FB-8C0D-7A294FCAF1B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F8067F0C-8750-41FB-8C0D-7A294FCAF1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Merge Sort" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3762,8 +3763,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.0910747350714049E-2"/>
-                  <c:y val="6.2219798370033559E-2"/>
+                  <c:x val="-0.18128785253490726"/>
+                  <c:y val="5.6586968724000236E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -7208,7 +7209,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10468327135338532"/>
+          <c:y val="0.14595227433338973"/>
+          <c:w val="0.86978213787315506"/>
+          <c:h val="0.81522975124874597"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -7269,8 +7280,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1078726043058393E-2"/>
-                  <c:y val="8.1693776891927602E-4"/>
+                  <c:x val="1.7957410687574726E-2"/>
+                  <c:y val="0.10816078004199979"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -12301,7 +12312,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3FAF557A-ABEB-4226-9F2B-B6C4C6B34491}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12313,7 +12324,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B8C8A82E-A97C-4C44-9BB6-E71CAA340454}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12325,7 +12336,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FFF03F6E-7D7D-4DEE-9BC1-945CE1AD2ABC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12337,7 +12348,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8654143" cy="6272893"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12415,7 +12426,10 @@
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>26.3 Seconds</a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
@@ -12425,6 +12439,12 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" u="sng" baseline="0"/>
             <a:t> sorted in 10 mins:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0"/>
+            <a:t>121,749 ELements</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -12437,7 +12457,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8654143" cy="6272893"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12508,12 +12528,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10267</cdr:x>
-      <cdr:y>0.09992</cdr:y>
+      <cdr:x>0.12154</cdr:x>
+      <cdr:y>0.09775</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.31579</cdr:x>
-      <cdr:y>0.28233</cdr:y>
+      <cdr:x>0.33466</cdr:x>
+      <cdr:y>0.28016</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -12528,8 +12548,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="889326" y="628813"/>
-          <a:ext cx="1846060" cy="1147884"/>
+          <a:off x="1051806" y="613180"/>
+          <a:ext cx="1844371" cy="1144239"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -12617,7 +12637,10 @@
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>43.8 Seconds</a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
@@ -12627,6 +12650,12 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" u="sng" baseline="0"/>
             <a:t> sorted in 10 mins:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0"/>
+            <a:t>92,569 Elements</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -12639,7 +12668,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8654143" cy="6272893"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12672,12 +12701,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.12523</cdr:x>
-      <cdr:y>0.09345</cdr:y>
+      <cdr:x>0.14095</cdr:x>
+      <cdr:y>0.18456</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.33459</cdr:x>
-      <cdr:y>0.27586</cdr:y>
+      <cdr:x>0.35031</cdr:x>
+      <cdr:y>0.36697</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -12692,8 +12721,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1084707" y="588099"/>
-          <a:ext cx="1813487" cy="1147908"/>
+          <a:off x="1219829" y="1157702"/>
+          <a:ext cx="1811832" cy="1144238"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -12781,6 +12810,17 @@
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.146</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Seconds</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -12791,6 +12831,12 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" u="sng" baseline="0"/>
             <a:t> sorted in 10 mins:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0"/>
+            <a:t>1.0x10^8 Elements</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
